--- a/tut06/output/2001MM16.xlsx
+++ b/tut06/output/2001MM16.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,9 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
